--- a/装修.xlsx
+++ b/装修.xlsx
@@ -1,21 +1,338 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211" fullCalcOnLoad="1"/>
+  <calcPr calcId="122211"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="66">
+  <si>
+    <t>详情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注意事项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>相关部门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关联材料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人工费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物料费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">步骤 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>步骤细分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>验收房屋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前期设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成(100%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结构设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开关插座设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>照明设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拆墙，床，柜子，厨卫，书桌，吊顶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开关插座位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、地板都使用磁砖，卧室使用样子像木质的地板
+2、小面积地方不益使用深颜色地板（看上去显小）
+3、地板做美缝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300左右</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房屋验收公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1、厨卫，阳台使用防水插座开关
+2、二位双控开关
+3、需要考虑书桌、床等后期换位置
+4、厨房插座多设计
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>照片设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、无暗角
+2、卧室大小灯
+3、客厅大小灯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择装修公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姐夫公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>先自己了解行情，确认半包\全包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装修施工合同</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>签订 装修施工合同</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、工期约定（一般100平35天左右）
+2、付款方式（首付、中期、尾款）
+3、首付压到30%（越底越好），中期交纳30%。 中期款：一般合同上约定的中期付款时间，只是简单的标明“工程过半，木工收口”。但是一个工地往往是多项目交叉作业，正规的工期过半应该是：木器制作结束；厨卫墙、地砖、吊顶结束；墙面找平结束；电改造结束
+4、增减项目，保修条款，水电费用，按图施工，监理和质检到场时间和次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同谁来拟？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物业备案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>去物业做备案，办开工证，交押金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1、提供自家装修的图纸
+2、办理“开工证”，也就是用来贴在自家门上，便于物业检查的工期证明;
+3、办理小区出入证 一般是15元一个，工本费5元，剩下的10元钱，等装修结束后会退还给业主，工人的一寸照片2张
+4、交纳装修押金(各个小区收取的不同，最少也在2000元左右，一般装修完工后3个月会退给业主)
+5、交垃圾清运费，一般在300元左右
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、装修图纸
+2、工人一寸照2张
+3、押金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主体拆改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拆墙、砌墙等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姐朋友（小芳）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如装修公司不负责拆墙则以楼下找个，（小芳楼下找的人拆墙加运走350元）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装修公司或自己找</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物业（甲方）
+业主（乙方）
+装修公司（丙方）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水电改造</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按水电设计图纸施工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装修公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、会对图纸与电工交底
+2、厨房、卫生间 做防水（防水油。。。）
+3、分清安全责任，（由于工人操作不当或施工顺序及方法不当引起的一切安全事故，责任由施工单位自负）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泥工（瓦工）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泥工、木工、油漆工(按顺序执行）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、过门石、大理石窗台的安装
+2、地漏的安装
+3、油烟机的安装（考虑）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>木工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卧室、厨房打柜子可能是两批人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、木工在完成地面帖砖之后
+2、厨房注意开水槽、煤气槽、预留油烟机位置等
+3、材料提前买</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卧室、玄关打柜子师傅
+厨房打柜子师傅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参与人员(关系方式）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刷墙面漆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>油漆师傅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泥工师傅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>免漆板（姐买的湘云的婴童板另可考虑 多层实木免漆板）
+柜子包边
+厨房面砖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、刷漆前刮腻子、找平、打磨
+2、刷漆时一底二面必不可少
+3、刷漆后保持室内通风干燥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客厅磁砖
+卧室防木磁砖
+厨房卫生间防滑磁砖（颜色不宜过深）
+沙石水泥等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、保持通风
+2、避免物体靠墙
+3、注意防水防火</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吊顶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玄关、客厅吊顶
+其他地方石膏线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地面找平
+墙面找平
+贴砖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>封阳台、封窗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1、防水油（厕所4平米的用2小桶就可以．每桶在4元左右）
+2、电线
+3、水管、电线管
+4、开关
+5、灯
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>腻子粉
+小康：福乐阁，都芳
+不差钱：多乐士，立邦
+差钱：晨阳，三棵树，华润
+（京东可以买）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -23,16 +340,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14996795556505021"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -40,23 +370,107 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -98,7 +512,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -133,7 +547,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -341,13 +755,317 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G16" sqref="G16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="13.6640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="20.33203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="25.77734375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="12.88671875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="11" style="3" customWidth="1"/>
+    <col min="7" max="7" width="20.77734375" style="3" customWidth="1"/>
+    <col min="8" max="10" width="8.88671875" style="3"/>
+    <col min="11" max="11" width="12.109375" style="3" customWidth="1"/>
+    <col min="12" max="16384" width="8.88671875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="32.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="76.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="I3" s="4">
+        <v>2000</v>
+      </c>
+      <c r="K3" s="7">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="103.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5"/>
+      <c r="B4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="K4" s="5"/>
+    </row>
+    <row r="5" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6"/>
+      <c r="B5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="K5" s="6"/>
+    </row>
+    <row r="6" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="258" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="234.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="49.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="129.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="70.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="70.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="85.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="5"/>
+      <c r="B15" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="91.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="6"/>
+      <c r="B16" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="E3:E5"/>
+    <mergeCell ref="I3:I5"/>
+    <mergeCell ref="K3:K5"/>
+    <mergeCell ref="A14:A16"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/装修.xlsx
+++ b/装修.xlsx
@@ -4,17 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="需与装修负责人确认" sheetId="2" r:id="rId2"/>
+    <sheet name="装修材料费用参考" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="76">
   <si>
     <t>详情</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -88,12 +90,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1、地板都使用磁砖，卧室使用样子像木质的地板
-2、小面积地方不益使用深颜色地板（看上去显小）
-3、地板做美缝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>300左右</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -102,24 +98,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">1、厨卫，阳台使用防水插座开关
-2、二位双控开关
-3、需要考虑书桌、床等后期换位置
-4、厨房插座多设计
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>照片设计</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1、无暗角
-2、卧室大小灯
-3、客厅大小灯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>选择装修公司</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -128,22 +110,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>先自己了解行情，确认半包\全包</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>装修施工合同</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>签订 装修施工合同</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、工期约定（一般100平35天左右）
-2、付款方式（首付、中期、尾款）
-3、首付压到30%（越底越好），中期交纳30%。 中期款：一般合同上约定的中期付款时间，只是简单的标明“工程过半，木工收口”。但是一个工地往往是多项目交叉作业，正规的工期过半应该是：木器制作结束；厨卫墙、地砖、吊顶结束；墙面找平结束；电改造结束
-4、增减项目，保修条款，水电费用，按图施工，监理和质检到场时间和次数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -186,14 +157,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>如装修公司不负责拆墙则以楼下找个，（小芳楼下找的人拆墙加运走350元）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>装修公司或自己找</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>物业（甲方）
 业主（乙方）
 装修公司（丙方）</t>
@@ -209,12 +172,6 @@
   </si>
   <si>
     <t>装修公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、会对图纸与电工交底
-2、厨房、卫生间 做防水（防水油。。。）
-3、分清安全责任，（由于工人操作不当或施工顺序及方法不当引起的一切安全事故，责任由施工单位自负）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -293,11 +250,6 @@
   </si>
   <si>
     <t>吊顶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>玄关、客厅吊顶
-其他地方石膏线</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -327,12 +279,219 @@
 （京东可以买）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t>1、地板都使用磁砖，卧室使用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>仿木纹</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>地板
+2、小面积地方不益使用深颜色地板（看上去显小）
+3、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>磁砖</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>做美缝</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、工期约定（一般100平35天左右）
+2、付款方式（首付、中期、尾款）
+3、首付压到30%（越低越好），中期交纳30%。 中期款：一般合同上约定的中期付款时间，只是简单的标明“工程过半，木工收口”。但是一个工地往往是多项目交叉作业，正规的工期过半应该是：木器制作结束；厨卫墙、地砖、吊顶结束；墙面找平结束；电改造结束
+4、增减项目，保修条款，水电费用，按图施工，监理和质检到场时间和次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>楼盘下面找人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>楼盘下面找人（价格在500以内）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>包工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>装修公司</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>和设计师</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1、会对图纸与电工交底
+2、厨房、卫生间 做防水（防水油。。。）
+3、分清安全责任，（由于工人操作不当或施工顺序及方法不当引起的一切安全事故，责任由施工单位自负）
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3.在场人：自己，设计师，装修负责人，一起确认水电设计</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>楼盘下面找人（费用2W以内）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2W以内</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>500以内</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.确定工期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.需买什么材料，提前告知</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.签合同（价格，工期，后续维护等）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.适当授权（不重要的材料是否可自行购买了报账）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.说明节假日不能噪音施工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.确认图纸，把图纸和对接人过一遍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1、厨卫，阳台使用防水插座开关
+2、二位双控开关
+3、需要考虑书桌、床等后期换位置
+4、厨房插座多设计
+5、客厅，卧室可以使用带USB接口插座
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1、无暗角
+2、卧室（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>吊灯加壁灯</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）
+3、客厅（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>吊灯加四面壁灯</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）
+4、餐厅使用下垂艺术灯</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玄关、客厅、餐厅吊顶
+其他地方石膏线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -342,6 +501,14 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -426,7 +593,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -440,6 +607,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -447,9 +620,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -467,6 +637,58 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>20955</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>346710</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>11430</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2049" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="22860" y="20955"/>
+          <a:ext cx="6419850" cy="3465195"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -758,12 +980,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G16" sqref="G16"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="13.6640625" style="3" customWidth="1"/>
     <col min="3" max="3" width="20.33203125" style="3" customWidth="1"/>
@@ -790,7 +1012,7 @@
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>2</v>
@@ -822,17 +1044,17 @@
         <v>9</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="76.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:11" ht="76.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -842,20 +1064,20 @@
         <v>16</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="I3" s="4">
+        <v>57</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" s="6">
         <v>2000</v>
       </c>
-      <c r="K3" s="7">
+      <c r="K3" s="9">
         <v>0.9</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="103.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
+      <c r="A4" s="7"/>
       <c r="B4" s="3" t="s">
         <v>14</v>
       </c>
@@ -863,197 +1085,203 @@
         <v>17</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="K4" s="5"/>
-    </row>
-    <row r="5" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
+        <v>73</v>
+      </c>
+      <c r="E4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="K4" s="7"/>
+    </row>
+    <row r="5" spans="1:11" ht="68.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="8"/>
       <c r="B5" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="K5" s="6"/>
+        <v>74</v>
+      </c>
+      <c r="E5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="K5" s="8"/>
     </row>
     <row r="6" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="258" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="234.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>40</v>
-      </c>
       <c r="G8" s="3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="49.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>38</v>
+        <v>31</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>60</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>39</v>
+        <v>59</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="129.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="70.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="70.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="85.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="7"/>
+      <c r="B15" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="D15" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E11" s="3" t="s">
+      <c r="E15" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="F11" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="70.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="70.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="85.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+      <c r="F15" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="91.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="8"/>
+      <c r="B16" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
-      <c r="B15" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="G15" s="3" t="s">
+      <c r="F16" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G16" s="3" t="s">
         <v>56</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="91.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="6"/>
-      <c r="B16" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1068,4 +1296,66 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P16" sqref="P16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/装修.xlsx
+++ b/装修.xlsx
@@ -4,19 +4,21 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="装修流程" sheetId="1" r:id="rId1"/>
     <sheet name="需与装修负责人确认" sheetId="2" r:id="rId2"/>
     <sheet name="装修材料费用参考" sheetId="3" r:id="rId3"/>
+    <sheet name="材料清单 " sheetId="4" r:id="rId4"/>
+    <sheet name="次卧柜子的打法参考样本" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="97">
   <si>
     <t>详情</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -193,10 +195,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>卧室、厨房打柜子可能是两批人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1、木工在完成地面帖砖之后
 2、厨房注意开水槽、煤气槽、预留油烟机位置等
 3、材料提前买</t>
@@ -221,12 +219,6 @@
   </si>
   <si>
     <t>泥工师傅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>免漆板（姐买的湘云的婴童板另可考虑 多层实木免漆板）
-柜子包边
-厨房面砖</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -366,10 +358,47 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">1、会对图纸与电工交底
-2、厨房、卫生间 做防水（防水油。。。）
-3、分清安全责任，（由于工人操作不当或施工顺序及方法不当引起的一切安全事故，责任由施工单位自负）
+    <t>楼盘下面找人（费用2W以内）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2W以内</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>500以内</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.确定工期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.需买什么材料，提前告知</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.签合同（价格，工期，后续维护等）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.适当授权（不重要的材料是否可自行购买了报账）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.说明节假日不能噪音施工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.确认图纸，把图纸和对接人过一遍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1、厨卫，阳台使用防水插座开关
+2、二位双控开关
+3、需要考虑书桌、床等后期换位置
+4、厨房插座多设计
 </t>
     </r>
     <r>
@@ -381,53 +410,19 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>3.在场人：自己，设计师，装修负责人，一起确认水电设计</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>楼盘下面找人（费用2W以内）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2W以内</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>500以内</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.确定工期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.需买什么材料，提前告知</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.签合同（价格，工期，后续维护等）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.适当授权（不重要的材料是否可自行购买了报账）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5.说明节假日不能噪音施工</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6.确认图纸，把图纸和对接人过一遍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1、厨卫，阳台使用防水插座开关
-2、二位双控开关
-3、需要考虑书桌、床等后期换位置
-4、厨房插座多设计
-5、客厅，卧室可以使用带USB接口插座
+      <t>5、客厅，卧室可以使用带USB接口插座</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 </t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -476,14 +471,191 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>）
-4、餐厅使用下垂艺术灯</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>玄关、客厅、餐厅吊顶
+      <t xml:space="preserve">）
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4、餐厅使用下垂艺术灯</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>玄关、客厅、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>餐厅</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>吊顶
 其他地方石膏线</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">卧室、厨房打柜子可能是两批人
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>门另外自己买或者定做</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">免漆板（姐买的湘云的婴童板另可考虑 多层实木免漆板）
+柜子包边
+厨房面砖
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>石膏板（外层用石膏板，隔层用免漆板，包边）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>材料名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用处</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>品牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日丰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水电管</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水电改造</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1、会对图纸与电工交底
+2、厨房、卫生间 做防水（防水油。。。）
+3、分清安全责任，（由于工人操作不当或施工顺序及方法不当引起的一切安全事故，责任由施工单位自负）
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4、厨房电力系统与其他独立分开
+5.在场人：自己，设计师，装修负责人，一起确认水电设计</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝胜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水泥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沙石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蹲厕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>九牧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.能不能打榻榻米</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公卫，主卧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.免漆板打的柜子钉子明显吗？明显就自己刷漆，不明显就用生态免漆板</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -684,6 +856,49 @@
           <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
         <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>435510</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>176183</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="45720" y="0"/>
+          <a:ext cx="5876190" cy="7857143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -981,8 +1196,8 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1012,7 +1227,7 @@
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>2</v>
@@ -1064,7 +1279,7 @@
         <v>16</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>32</v>
@@ -1076,7 +1291,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="103.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="134.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
       <c r="B4" s="3" t="s">
         <v>14</v>
@@ -1085,7 +1300,7 @@
         <v>17</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E4" s="7"/>
       <c r="I4" s="7"/>
@@ -1100,7 +1315,7 @@
         <v>20</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E5" s="8"/>
       <c r="I5" s="8"/>
@@ -1117,7 +1332,7 @@
         <v>21</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>22</v>
@@ -1131,7 +1346,7 @@
         <v>24</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>36</v>
@@ -1165,16 +1380,16 @@
         <v>31</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="129.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="189" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>34</v>
       </c>
@@ -1182,24 +1397,24 @@
         <v>35</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>63</v>
+        <v>88</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>36</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="70.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>36</v>
@@ -1207,16 +1422,16 @@
     </row>
     <row r="13" spans="1:11" ht="70.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="85.2" customHeight="1" x14ac:dyDescent="0.25">
@@ -1227,61 +1442,61 @@
         <v>37</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>39</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>36</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="139.80000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
       <c r="B15" s="3" t="s">
         <v>40</v>
       </c>
       <c r="C15" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="E15" s="3" t="s">
         <v>42</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>43</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>36</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>48</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="91.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="8"/>
       <c r="B16" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>46</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>36</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1300,42 +1515,55 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:A8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="89.21875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>72</v>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -1348,7 +1576,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
@@ -1358,4 +1586,208 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.44140625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="9.77734375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="12.109375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="23.44140625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="8.44140625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="13.5546875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="11.88671875" style="3" customWidth="1"/>
+    <col min="9" max="9" width="20.5546875" style="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E6" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="N29" sqref="N29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/装修.xlsx
+++ b/装修.xlsx
@@ -655,7 +655,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>8.免漆板打的柜子钉子明显吗？明显就自己刷漆，不明显就用生态免漆板</t>
+    <t xml:space="preserve">8.免漆板打的柜子钉子明显吗？明显就自己刷漆，不明显就用生态免漆板 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1518,7 +1518,7 @@
   <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>

--- a/装修.xlsx
+++ b/装修.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="装修流程" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="99">
   <si>
     <t>详情</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -651,11 +651,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>公卫，主卧</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">8.免漆板打的柜子钉子明显吗？明显就自己刷漆，不明显就用生态免漆板 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马桶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主卧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公卫</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1517,7 +1525,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
@@ -1563,7 +1571,7 @@
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -1592,8 +1600,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1693,15 +1701,27 @@
         <v>93</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="E6" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E7" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
